--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_64ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_64ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2127,28 +2127,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1057.397944522421</v>
+        <v>1130.57154820449</v>
       </c>
       <c r="AB2" t="n">
-        <v>1446.778516800561</v>
+        <v>1546.897869549927</v>
       </c>
       <c r="AC2" t="n">
-        <v>1308.700005723516</v>
+        <v>1399.264107964878</v>
       </c>
       <c r="AD2" t="n">
-        <v>1057397.944522421</v>
+        <v>1130571.54820449</v>
       </c>
       <c r="AE2" t="n">
-        <v>1446778.516800561</v>
+        <v>1546897.869549927</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.28798443355962e-06</v>
+        <v>2.383108414994705e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.79850260416667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1308700.005723516</v>
+        <v>1399264.107964878</v>
       </c>
     </row>
     <row r="3">
@@ -2233,28 +2233,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>500.1230881911428</v>
+        <v>548.9054906458556</v>
       </c>
       <c r="AB3" t="n">
-        <v>684.2904731365834</v>
+        <v>751.0367083028281</v>
       </c>
       <c r="AC3" t="n">
-        <v>618.9827507881381</v>
+        <v>679.3588189490458</v>
       </c>
       <c r="AD3" t="n">
-        <v>500123.0881911428</v>
+        <v>548905.4906458555</v>
       </c>
       <c r="AE3" t="n">
-        <v>684290.4731365833</v>
+        <v>751036.708302828</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.023988876455632e-06</v>
+        <v>3.744909330935501e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.508138020833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>618982.7507881381</v>
+        <v>679358.8189490458</v>
       </c>
     </row>
     <row r="4">
@@ -2339,28 +2339,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>388.966543815788</v>
+        <v>425.6386865113941</v>
       </c>
       <c r="AB4" t="n">
-        <v>532.2011852415837</v>
+        <v>582.3776287384648</v>
       </c>
       <c r="AC4" t="n">
-        <v>481.408651071181</v>
+        <v>526.7963252238006</v>
       </c>
       <c r="AD4" t="n">
-        <v>388966.543815788</v>
+        <v>425638.6865113941</v>
       </c>
       <c r="AE4" t="n">
-        <v>532201.1852415837</v>
+        <v>582377.6287384648</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.312023090122282e-06</v>
+        <v>4.27784803773207e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.572265625</v>
       </c>
       <c r="AH4" t="n">
-        <v>481408.651071181</v>
+        <v>526796.3252238006</v>
       </c>
     </row>
     <row r="5">
@@ -2445,28 +2445,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>348.9192293404937</v>
+        <v>385.4207798355076</v>
       </c>
       <c r="AB5" t="n">
-        <v>477.4066828136633</v>
+        <v>527.3497145356973</v>
       </c>
       <c r="AC5" t="n">
-        <v>431.8436590504141</v>
+        <v>477.0201979203826</v>
       </c>
       <c r="AD5" t="n">
-        <v>348919.2293404937</v>
+        <v>385420.7798355076</v>
       </c>
       <c r="AE5" t="n">
-        <v>477406.6828136633</v>
+        <v>527349.7145356974</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.431718345201907e-06</v>
+        <v>4.499315597574274e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="AH5" t="n">
-        <v>431843.6590504141</v>
+        <v>477020.1979203826</v>
       </c>
     </row>
     <row r="6">
@@ -2551,28 +2551,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>350.3115480640924</v>
+        <v>386.8130985591063</v>
       </c>
       <c r="AB6" t="n">
-        <v>479.3117147160579</v>
+        <v>529.2547464380921</v>
       </c>
       <c r="AC6" t="n">
-        <v>433.5668773817733</v>
+        <v>478.7434162517418</v>
       </c>
       <c r="AD6" t="n">
-        <v>350311.5480640924</v>
+        <v>386813.0985591063</v>
       </c>
       <c r="AE6" t="n">
-        <v>479311.7147160579</v>
+        <v>529254.7464380921</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.431438247101097e-06</v>
+        <v>4.498797342754051e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="AH6" t="n">
-        <v>433566.8773817733</v>
+        <v>478743.4162517418</v>
       </c>
     </row>
   </sheetData>
@@ -2848,28 +2848,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>725.4515124211456</v>
+        <v>795.8631035083057</v>
       </c>
       <c r="AB2" t="n">
-        <v>992.5947639565644</v>
+        <v>1088.935009222181</v>
       </c>
       <c r="AC2" t="n">
-        <v>897.8629128000501</v>
+        <v>985.0085802719</v>
       </c>
       <c r="AD2" t="n">
-        <v>725451.5124211456</v>
+        <v>795863.1035083057</v>
       </c>
       <c r="AE2" t="n">
-        <v>992594.7639565644</v>
+        <v>1088935.009222181</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.587968050191712e-06</v>
+        <v>3.026912178583531e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.900716145833334</v>
       </c>
       <c r="AH2" t="n">
-        <v>897862.9128000501</v>
+        <v>985008.5802718999</v>
       </c>
     </row>
     <row r="3">
@@ -2954,28 +2954,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>384.1129297713002</v>
+        <v>431.0824374475975</v>
       </c>
       <c r="AB3" t="n">
-        <v>525.5602563795761</v>
+        <v>589.8260089307199</v>
       </c>
       <c r="AC3" t="n">
-        <v>475.4015231391613</v>
+        <v>533.5338424643741</v>
       </c>
       <c r="AD3" t="n">
-        <v>384112.9297713002</v>
+        <v>431082.4374475975</v>
       </c>
       <c r="AE3" t="n">
-        <v>525560.2563795762</v>
+        <v>589826.0089307199</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.281261320934131e-06</v>
+        <v>4.348436150232006e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.891276041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>475401.5231391613</v>
+        <v>533533.842464374</v>
       </c>
     </row>
     <row r="4">
@@ -3060,28 +3060,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>324.5820010594476</v>
+        <v>359.7878861115786</v>
       </c>
       <c r="AB4" t="n">
-        <v>444.107413396801</v>
+        <v>492.2776584991578</v>
       </c>
       <c r="AC4" t="n">
-        <v>401.722425170879</v>
+        <v>445.2953696880305</v>
       </c>
       <c r="AD4" t="n">
-        <v>324582.0010594476</v>
+        <v>359787.8861115787</v>
       </c>
       <c r="AE4" t="n">
-        <v>444107.413396801</v>
+        <v>492277.6584991578</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.485540405305852e-06</v>
+        <v>4.737823611925587e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.324869791666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>401722.425170879</v>
+        <v>445295.3696880304</v>
       </c>
     </row>
     <row r="5">
@@ -3166,28 +3166,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>326.0387736999003</v>
+        <v>361.2446587520314</v>
       </c>
       <c r="AB5" t="n">
-        <v>446.1006339917415</v>
+        <v>494.2708790940982</v>
       </c>
       <c r="AC5" t="n">
-        <v>403.525415589741</v>
+        <v>447.0983601068924</v>
       </c>
       <c r="AD5" t="n">
-        <v>326038.7736999003</v>
+        <v>361244.6587520314</v>
       </c>
       <c r="AE5" t="n">
-        <v>446100.6339917415</v>
+        <v>494270.8790940982</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.485347233594862e-06</v>
+        <v>4.737455396831788e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.324869791666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>403525.415589741</v>
+        <v>447098.3601068924</v>
       </c>
     </row>
   </sheetData>
@@ -3463,28 +3463,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>291.0368664609664</v>
+        <v>322.4272834430901</v>
       </c>
       <c r="AB2" t="n">
-        <v>398.2094803322672</v>
+        <v>441.1592336946684</v>
       </c>
       <c r="AC2" t="n">
-        <v>360.2049264198707</v>
+        <v>399.0556156017217</v>
       </c>
       <c r="AD2" t="n">
-        <v>291036.8664609664</v>
+        <v>322427.2834430901</v>
       </c>
       <c r="AE2" t="n">
-        <v>398209.4803322672</v>
+        <v>441159.2336946685</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.49931951104663e-06</v>
+        <v>5.322896479279605e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.018229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>360204.9264198707</v>
+        <v>399055.6156017217</v>
       </c>
     </row>
     <row r="3">
@@ -3569,28 +3569,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>292.9897379657129</v>
+        <v>324.3801549478367</v>
       </c>
       <c r="AB3" t="n">
-        <v>400.8814852796718</v>
+        <v>443.831238642073</v>
       </c>
       <c r="AC3" t="n">
-        <v>362.6219189652774</v>
+        <v>401.4726081471285</v>
       </c>
       <c r="AD3" t="n">
-        <v>292989.737965713</v>
+        <v>324380.1549478367</v>
       </c>
       <c r="AE3" t="n">
-        <v>400881.4852796718</v>
+        <v>443831.238642073</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.498565080836309e-06</v>
+        <v>5.321289740368222e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.021484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>362621.9189652774</v>
+        <v>401472.6081471285</v>
       </c>
     </row>
   </sheetData>
@@ -3866,28 +3866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>390.8491857042782</v>
+        <v>434.7363698890795</v>
       </c>
       <c r="AB2" t="n">
-        <v>534.7770989297144</v>
+        <v>594.825480497278</v>
       </c>
       <c r="AC2" t="n">
-        <v>483.738723172234</v>
+        <v>538.0561714814222</v>
       </c>
       <c r="AD2" t="n">
-        <v>390849.1857042782</v>
+        <v>434736.3698890795</v>
       </c>
       <c r="AE2" t="n">
-        <v>534777.0989297144</v>
+        <v>594825.480497278</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.186458087773442e-06</v>
+        <v>4.439265845969222e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.67578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>483738.723172234</v>
+        <v>538056.1714814223</v>
       </c>
     </row>
     <row r="3">
@@ -3972,28 +3972,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>294.3230625707961</v>
+        <v>338.1249059010258</v>
       </c>
       <c r="AB3" t="n">
-        <v>402.7057988264765</v>
+        <v>462.6374132718426</v>
       </c>
       <c r="AC3" t="n">
-        <v>364.2721225876153</v>
+        <v>418.4839478648648</v>
       </c>
       <c r="AD3" t="n">
-        <v>294323.0625707961</v>
+        <v>338124.9059010259</v>
       </c>
       <c r="AE3" t="n">
-        <v>402705.7988264765</v>
+        <v>462637.4132718426</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.526706682022822e-06</v>
+        <v>5.130088127007534e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.642252604166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>364272.1225876153</v>
+        <v>418483.9478648648</v>
       </c>
     </row>
   </sheetData>
@@ -4269,28 +4269,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>285.9157782220435</v>
+        <v>326.1017314100175</v>
       </c>
       <c r="AB2" t="n">
-        <v>391.2025814773049</v>
+        <v>446.1867755082221</v>
       </c>
       <c r="AC2" t="n">
-        <v>353.8667561573817</v>
+        <v>403.603335880789</v>
       </c>
       <c r="AD2" t="n">
-        <v>285915.7782220435</v>
+        <v>326101.7314100175</v>
       </c>
       <c r="AE2" t="n">
-        <v>391202.5814773049</v>
+        <v>446186.7755082221</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.419681147577708e-06</v>
+        <v>5.388157293755633e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.529296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>353866.7561573817</v>
+        <v>403603.335880789</v>
       </c>
     </row>
   </sheetData>
@@ -4566,28 +4566,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>803.7093916773555</v>
+        <v>863.0102919692943</v>
       </c>
       <c r="AB2" t="n">
-        <v>1099.670646848879</v>
+        <v>1180.80875479939</v>
       </c>
       <c r="AC2" t="n">
-        <v>994.7196237110675</v>
+        <v>1068.114024516832</v>
       </c>
       <c r="AD2" t="n">
-        <v>803709.3916773555</v>
+        <v>863010.2919692943</v>
       </c>
       <c r="AE2" t="n">
-        <v>1099670.646848879</v>
+        <v>1180808.75479939</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.508136458428663e-06</v>
+        <v>2.851529622922419e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.33040364583333</v>
       </c>
       <c r="AH2" t="n">
-        <v>994719.6237110675</v>
+        <v>1068114.024516832</v>
       </c>
     </row>
     <row r="3">
@@ -4672,28 +4672,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>421.14176999196</v>
+        <v>456.7735504832866</v>
       </c>
       <c r="AB3" t="n">
-        <v>576.2247491666197</v>
+        <v>624.9777231980646</v>
       </c>
       <c r="AC3" t="n">
-        <v>521.2306678426717</v>
+        <v>565.3307264577842</v>
       </c>
       <c r="AD3" t="n">
-        <v>421141.76999196</v>
+        <v>456773.5504832866</v>
       </c>
       <c r="AE3" t="n">
-        <v>576224.7491666197</v>
+        <v>624977.7231980646</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.213101234788596e-06</v>
+        <v>4.184451409722598e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.039388020833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>521230.6678426717</v>
+        <v>565330.7264577842</v>
       </c>
     </row>
     <row r="4">
@@ -4778,28 +4778,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>332.2360584492538</v>
+        <v>367.7824980860088</v>
       </c>
       <c r="AB4" t="n">
-        <v>454.5800323907142</v>
+        <v>503.2162392999612</v>
       </c>
       <c r="AC4" t="n">
-        <v>411.1955521064261</v>
+        <v>455.1899876895997</v>
       </c>
       <c r="AD4" t="n">
-        <v>332236.0584492538</v>
+        <v>367782.4980860088</v>
       </c>
       <c r="AE4" t="n">
-        <v>454580.0323907142</v>
+        <v>503216.2392999611</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.464648747656744e-06</v>
+        <v>4.660068307986124e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.321614583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>411195.5521064261</v>
+        <v>455189.9876895997</v>
       </c>
     </row>
     <row r="5">
@@ -4884,28 +4884,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>332.4485493635293</v>
+        <v>367.9949890002843</v>
       </c>
       <c r="AB5" t="n">
-        <v>454.8707718340635</v>
+        <v>503.5069787433105</v>
       </c>
       <c r="AC5" t="n">
-        <v>411.4585437853576</v>
+        <v>455.4529793685311</v>
       </c>
       <c r="AD5" t="n">
-        <v>332448.5493635293</v>
+        <v>367994.9890002843</v>
       </c>
       <c r="AE5" t="n">
-        <v>454870.7718340635</v>
+        <v>503506.9787433105</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.467616012838978e-06</v>
+        <v>4.665678705187862e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.3134765625</v>
       </c>
       <c r="AH5" t="n">
-        <v>411458.5437853576</v>
+        <v>455452.9793685311</v>
       </c>
     </row>
   </sheetData>
@@ -5181,28 +5181,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>287.1090638816224</v>
+        <v>335.936327096473</v>
       </c>
       <c r="AB2" t="n">
-        <v>392.8352875607887</v>
+        <v>459.642903198171</v>
       </c>
       <c r="AC2" t="n">
-        <v>355.3436390637751</v>
+        <v>415.7752296298032</v>
       </c>
       <c r="AD2" t="n">
-        <v>287109.0638816224</v>
+        <v>335936.327096473</v>
       </c>
       <c r="AE2" t="n">
-        <v>392835.2875607887</v>
+        <v>459642.903198171</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.330777384978183e-06</v>
+        <v>5.343462730220998e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.999674479166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>355343.6390637751</v>
+        <v>415775.2296298032</v>
       </c>
     </row>
   </sheetData>
@@ -5478,28 +5478,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>543.0962275646407</v>
+        <v>599.987340043354</v>
       </c>
       <c r="AB2" t="n">
-        <v>743.0882182685107</v>
+        <v>820.9291482206319</v>
       </c>
       <c r="AC2" t="n">
-        <v>672.1689216478278</v>
+        <v>742.5808224957499</v>
       </c>
       <c r="AD2" t="n">
-        <v>543096.2275646407</v>
+        <v>599987.3400433541</v>
       </c>
       <c r="AE2" t="n">
-        <v>743088.2182685107</v>
+        <v>820929.1482206319</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.856222712227052e-06</v>
+        <v>3.638170863089313e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.7255859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>672168.9216478278</v>
+        <v>742580.8224957499</v>
       </c>
     </row>
     <row r="3">
@@ -5584,28 +5584,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>311.9919190782776</v>
+        <v>346.0925397322281</v>
       </c>
       <c r="AB3" t="n">
-        <v>426.881107794948</v>
+        <v>473.53908138689</v>
       </c>
       <c r="AC3" t="n">
-        <v>386.1401739983951</v>
+        <v>428.3451760755993</v>
       </c>
       <c r="AD3" t="n">
-        <v>311991.9190782777</v>
+        <v>346092.5397322281</v>
       </c>
       <c r="AE3" t="n">
-        <v>426881.107794948</v>
+        <v>473539.08138689</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.501268314578189e-06</v>
+        <v>4.902451329209773e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.474609375</v>
       </c>
       <c r="AH3" t="n">
-        <v>386140.1739983951</v>
+        <v>428345.1760755993</v>
       </c>
     </row>
     <row r="4">
@@ -5690,28 +5690,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>309.068382006245</v>
+        <v>343.1690026601954</v>
       </c>
       <c r="AB4" t="n">
-        <v>422.88099539564</v>
+        <v>469.538968987582</v>
       </c>
       <c r="AC4" t="n">
-        <v>382.521826712284</v>
+        <v>424.7268287894883</v>
       </c>
       <c r="AD4" t="n">
-        <v>309068.382006245</v>
+        <v>343169.0026601953</v>
       </c>
       <c r="AE4" t="n">
-        <v>422880.99539564</v>
+        <v>469538.968987582</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.518384612573313e-06</v>
+        <v>4.935999036734105e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.432291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>382521.826712284</v>
+        <v>424726.8287894883</v>
       </c>
     </row>
   </sheetData>
@@ -5987,28 +5987,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>664.6359278535501</v>
+        <v>722.6947219829809</v>
       </c>
       <c r="AB2" t="n">
-        <v>909.3841981569456</v>
+        <v>988.8228016580568</v>
       </c>
       <c r="AC2" t="n">
-        <v>822.5938466135842</v>
+        <v>894.4509412893298</v>
       </c>
       <c r="AD2" t="n">
-        <v>664635.9278535502</v>
+        <v>722694.721982981</v>
       </c>
       <c r="AE2" t="n">
-        <v>909384.1981569455</v>
+        <v>988822.8016580568</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.671596013788852e-06</v>
+        <v>3.21398280629674e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.493815104166666</v>
       </c>
       <c r="AH2" t="n">
-        <v>822593.8466135842</v>
+        <v>894450.9412893298</v>
       </c>
     </row>
     <row r="3">
@@ -6093,28 +6093,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>358.4127535147592</v>
+        <v>404.9109217242059</v>
       </c>
       <c r="AB3" t="n">
-        <v>490.3961414136209</v>
+        <v>554.0169865121899</v>
       </c>
       <c r="AC3" t="n">
-        <v>443.5934219524113</v>
+        <v>501.1423828871899</v>
       </c>
       <c r="AD3" t="n">
-        <v>358412.7535147592</v>
+        <v>404910.9217242059</v>
       </c>
       <c r="AE3" t="n">
-        <v>490396.1414136208</v>
+        <v>554016.9865121898</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.357141485846098e-06</v>
+        <v>4.532083197749867e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.7333984375</v>
       </c>
       <c r="AH3" t="n">
-        <v>443593.4219524113</v>
+        <v>501142.3828871899</v>
       </c>
     </row>
     <row r="4">
@@ -6199,28 +6199,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>320.44203736469</v>
+        <v>355.2944178166831</v>
       </c>
       <c r="AB4" t="n">
-        <v>438.4429324273256</v>
+        <v>486.1294969402513</v>
       </c>
       <c r="AC4" t="n">
-        <v>396.5985543149814</v>
+        <v>439.7339800393071</v>
       </c>
       <c r="AD4" t="n">
-        <v>320442.0373646899</v>
+        <v>355294.4178166831</v>
       </c>
       <c r="AE4" t="n">
-        <v>438442.9324273256</v>
+        <v>486129.4969402513</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.492768530595299e-06</v>
+        <v>4.792853734588338e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.365559895833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>396598.5543149813</v>
+        <v>439733.9800393071</v>
       </c>
     </row>
   </sheetData>
@@ -6496,28 +6496,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>969.391385304495</v>
+        <v>1041.77792574012</v>
       </c>
       <c r="AB2" t="n">
-        <v>1326.36405990322</v>
+        <v>1425.406517996023</v>
       </c>
       <c r="AC2" t="n">
-        <v>1199.777735589706</v>
+        <v>1289.367720489094</v>
       </c>
       <c r="AD2" t="n">
-        <v>969391.385304495</v>
+        <v>1041777.92574012</v>
       </c>
       <c r="AE2" t="n">
-        <v>1326364.05990322</v>
+        <v>1425406.517996022</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.357853779703477e-06</v>
+        <v>2.529578603233753e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.28092447916667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1199777.735589706</v>
+        <v>1289367.720489094</v>
       </c>
     </row>
     <row r="3">
@@ -6602,28 +6602,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>472.8496812316801</v>
+        <v>521.050510788566</v>
       </c>
       <c r="AB3" t="n">
-        <v>646.9737945168505</v>
+        <v>712.9242959871031</v>
       </c>
       <c r="AC3" t="n">
-        <v>585.2275236015851</v>
+        <v>644.8838017736269</v>
       </c>
       <c r="AD3" t="n">
-        <v>472849.6812316801</v>
+        <v>521050.5107885661</v>
       </c>
       <c r="AE3" t="n">
-        <v>646973.7945168505</v>
+        <v>712924.295987103</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.086001457383391e-06</v>
+        <v>3.886062499353765e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.34375</v>
       </c>
       <c r="AH3" t="n">
-        <v>585227.5236015851</v>
+        <v>644883.8017736269</v>
       </c>
     </row>
     <row r="4">
@@ -6708,28 +6708,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>367.752106090586</v>
+        <v>403.9454210626741</v>
       </c>
       <c r="AB4" t="n">
-        <v>503.1746556310235</v>
+        <v>552.6959459121989</v>
       </c>
       <c r="AC4" t="n">
-        <v>455.1523727076624</v>
+        <v>499.94742054797</v>
       </c>
       <c r="AD4" t="n">
-        <v>367752.1060905861</v>
+        <v>403945.4210626741</v>
       </c>
       <c r="AE4" t="n">
-        <v>503174.6556310235</v>
+        <v>552695.9459121989</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.368150447648919e-06</v>
+        <v>4.411684668226428e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.468098958333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>455152.3727076624</v>
+        <v>499947.4205479699</v>
       </c>
     </row>
     <row r="5">
@@ -6814,28 +6814,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>342.173056955242</v>
+        <v>378.36637192733</v>
       </c>
       <c r="AB5" t="n">
-        <v>468.1762721360413</v>
+        <v>517.6975624172167</v>
       </c>
       <c r="AC5" t="n">
-        <v>423.4941858129016</v>
+        <v>468.2892336532091</v>
       </c>
       <c r="AD5" t="n">
-        <v>342173.0569552419</v>
+        <v>378366.37192733</v>
       </c>
       <c r="AE5" t="n">
-        <v>468176.2721360413</v>
+        <v>517697.5624172167</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.448145991920332e-06</v>
+        <v>4.560710299828084e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.256510416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>423494.1858129016</v>
+        <v>468289.2336532091</v>
       </c>
     </row>
   </sheetData>
@@ -7111,28 +7111,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>447.0247494763517</v>
+        <v>491.4214320867673</v>
       </c>
       <c r="AB2" t="n">
-        <v>611.6389835736298</v>
+        <v>672.3844833646033</v>
       </c>
       <c r="AC2" t="n">
-        <v>553.2650174220669</v>
+        <v>608.2130519698341</v>
       </c>
       <c r="AD2" t="n">
-        <v>447024.7494763517</v>
+        <v>491421.4320867673</v>
       </c>
       <c r="AE2" t="n">
-        <v>611638.9835736299</v>
+        <v>672384.4833646032</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.066340014431256e-06</v>
+        <v>4.141973093384468e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.019205729166666</v>
       </c>
       <c r="AH2" t="n">
-        <v>553265.0174220669</v>
+        <v>608213.051969834</v>
       </c>
     </row>
     <row r="3">
@@ -7217,28 +7217,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>298.8414276853941</v>
+        <v>332.2882190072928</v>
       </c>
       <c r="AB3" t="n">
-        <v>408.88802531247</v>
+        <v>454.6514007673846</v>
       </c>
       <c r="AC3" t="n">
-        <v>369.8643260545949</v>
+        <v>411.2601091853933</v>
       </c>
       <c r="AD3" t="n">
-        <v>298841.4276853941</v>
+        <v>332288.2190072928</v>
       </c>
       <c r="AE3" t="n">
-        <v>408888.02531247</v>
+        <v>454651.4007673846</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.524406716817371e-06</v>
+        <v>5.060166586714684e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.564127604166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>369864.3260545949</v>
+        <v>411260.1091853933</v>
       </c>
     </row>
   </sheetData>
@@ -7514,28 +7514,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>308.5900570792044</v>
+        <v>340.5258936083716</v>
       </c>
       <c r="AB2" t="n">
-        <v>422.2265301282566</v>
+        <v>465.922550577135</v>
       </c>
       <c r="AC2" t="n">
-        <v>381.9298226914719</v>
+        <v>421.4555562764592</v>
       </c>
       <c r="AD2" t="n">
-        <v>308590.0570792044</v>
+        <v>340525.8936083716</v>
       </c>
       <c r="AE2" t="n">
-        <v>422226.5301282567</v>
+        <v>465922.5505771351</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.453539182951796e-06</v>
+        <v>5.132957409964781e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.0361328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>381929.822691472</v>
+        <v>421455.5562764592</v>
       </c>
     </row>
     <row r="3">
@@ -7620,28 +7620,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>285.1590957038213</v>
+        <v>327.6547508767378</v>
       </c>
       <c r="AB3" t="n">
-        <v>390.1672550733965</v>
+        <v>448.3116852569721</v>
       </c>
       <c r="AC3" t="n">
-        <v>352.9302398523726</v>
+        <v>405.525447225448</v>
       </c>
       <c r="AD3" t="n">
-        <v>285159.0957038213</v>
+        <v>327654.7508767378</v>
       </c>
       <c r="AE3" t="n">
-        <v>390167.2550733965</v>
+        <v>448311.6852569721</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.52024948579941e-06</v>
+        <v>5.272519535445367e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.848958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>352930.2398523726</v>
+        <v>405525.447225448</v>
       </c>
     </row>
   </sheetData>
@@ -12946,28 +12946,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>288.0744647410315</v>
+        <v>318.8707098582645</v>
       </c>
       <c r="AB2" t="n">
-        <v>394.1561916071122</v>
+        <v>436.2929728109573</v>
       </c>
       <c r="AC2" t="n">
-        <v>356.5384778818179</v>
+        <v>394.653783826912</v>
       </c>
       <c r="AD2" t="n">
-        <v>288074.4647410315</v>
+        <v>318870.7098582645</v>
       </c>
       <c r="AE2" t="n">
-        <v>394156.1916071122</v>
+        <v>436292.9728109573</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.46840631369622e-06</v>
+        <v>5.36595930737954e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.234700520833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>356538.4778818179</v>
+        <v>394653.783826912</v>
       </c>
     </row>
   </sheetData>
@@ -13243,28 +13243,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>302.8196069342151</v>
+        <v>350.2961527848463</v>
       </c>
       <c r="AB2" t="n">
-        <v>414.3311456655888</v>
+        <v>479.2906502158017</v>
       </c>
       <c r="AC2" t="n">
-        <v>374.7879626406795</v>
+        <v>433.5478232478574</v>
       </c>
       <c r="AD2" t="n">
-        <v>302819.6069342151</v>
+        <v>350296.1527848463</v>
       </c>
       <c r="AE2" t="n">
-        <v>414331.1456655888</v>
+        <v>479290.6502158017</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.174332304540819e-06</v>
+        <v>5.171708014009585e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.815104166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>374787.9626406795</v>
+        <v>433547.8232478574</v>
       </c>
     </row>
   </sheetData>
@@ -13540,28 +13540,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>606.2245579682542</v>
+        <v>652.3176726814196</v>
       </c>
       <c r="AB2" t="n">
-        <v>829.4631849521147</v>
+        <v>892.5298179873727</v>
       </c>
       <c r="AC2" t="n">
-        <v>750.3003827391759</v>
+        <v>807.348024832124</v>
       </c>
       <c r="AD2" t="n">
-        <v>606224.5579682542</v>
+        <v>652317.6726814196</v>
       </c>
       <c r="AE2" t="n">
-        <v>829463.1849521147</v>
+        <v>892529.8179873726</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.763421019200441e-06</v>
+        <v>3.422056378444543e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.088541666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>750300.3827391759</v>
+        <v>807348.024832124</v>
       </c>
     </row>
     <row r="3">
@@ -13646,28 +13646,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>332.9313252068518</v>
+        <v>367.5864349648842</v>
       </c>
       <c r="AB3" t="n">
-        <v>455.5313270414644</v>
+        <v>502.9479770879441</v>
       </c>
       <c r="AC3" t="n">
-        <v>412.0560565308592</v>
+        <v>454.9473280465892</v>
       </c>
       <c r="AD3" t="n">
-        <v>332931.3252068518</v>
+        <v>367586.4349648842</v>
       </c>
       <c r="AE3" t="n">
-        <v>455531.3270414643</v>
+        <v>502947.9770879442</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.435622497787709e-06</v>
+        <v>4.726515910429937e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.580403645833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>412056.0565308592</v>
+        <v>454947.3280465892</v>
       </c>
     </row>
     <row r="4">
@@ -13752,28 +13752,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>314.8068311778619</v>
+        <v>349.291348735302</v>
       </c>
       <c r="AB4" t="n">
-        <v>430.7325947147564</v>
+        <v>477.915832986389</v>
       </c>
       <c r="AC4" t="n">
-        <v>389.6240804121728</v>
+        <v>432.3042166452516</v>
       </c>
       <c r="AD4" t="n">
-        <v>314806.8311778618</v>
+        <v>349291.348735302</v>
       </c>
       <c r="AE4" t="n">
-        <v>430732.5947147564</v>
+        <v>477915.8329863891</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.504457662383739e-06</v>
+        <v>4.860095929893429e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.399739583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>389624.0804121728</v>
+        <v>432304.2166452517</v>
       </c>
     </row>
   </sheetData>
@@ -14049,28 +14049,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>876.8014311696021</v>
+        <v>948.6370745397771</v>
       </c>
       <c r="AB2" t="n">
-        <v>1199.678399875372</v>
+        <v>1297.967096299363</v>
       </c>
       <c r="AC2" t="n">
-        <v>1085.182777150475</v>
+        <v>1174.090938336812</v>
       </c>
       <c r="AD2" t="n">
-        <v>876801.4311696021</v>
+        <v>948637.0745397771</v>
       </c>
       <c r="AE2" t="n">
-        <v>1199678.399875372</v>
+        <v>1297967.096299363</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.431304522889776e-06</v>
+        <v>2.685688684432578e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.791015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1085182.777150475</v>
+        <v>1174090.938336812</v>
       </c>
     </row>
     <row r="3">
@@ -14155,28 +14155,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>447.3169586164692</v>
+        <v>483.2775402373936</v>
       </c>
       <c r="AB3" t="n">
-        <v>612.0387970104961</v>
+        <v>661.2416512531385</v>
       </c>
       <c r="AC3" t="n">
-        <v>553.6266732256601</v>
+        <v>598.1336761160245</v>
       </c>
       <c r="AD3" t="n">
-        <v>447316.9586164692</v>
+        <v>483277.5402373936</v>
       </c>
       <c r="AE3" t="n">
-        <v>612038.797010496</v>
+        <v>661241.6512531384</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.145960384580613e-06</v>
+        <v>4.026663389893146e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.197265625</v>
       </c>
       <c r="AH3" t="n">
-        <v>553626.6732256601</v>
+        <v>598133.6761160245</v>
       </c>
     </row>
     <row r="4">
@@ -14261,28 +14261,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>346.7964044844354</v>
+        <v>382.6716452507883</v>
       </c>
       <c r="AB4" t="n">
-        <v>474.5021401931814</v>
+        <v>523.5882273136264</v>
       </c>
       <c r="AC4" t="n">
-        <v>429.2163219010798</v>
+        <v>473.6177017595055</v>
       </c>
       <c r="AD4" t="n">
-        <v>346796.4044844354</v>
+        <v>382671.6452507883</v>
       </c>
       <c r="AE4" t="n">
-        <v>474502.1401931814</v>
+        <v>523588.2273136263</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.426850220008163e-06</v>
+        <v>4.553722894363107e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.363932291666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>429216.3219010798</v>
+        <v>473617.7017595054</v>
       </c>
     </row>
     <row r="5">
@@ -14367,28 +14367,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>337.2214686506944</v>
+        <v>373.0967094170472</v>
       </c>
       <c r="AB5" t="n">
-        <v>461.4012905691005</v>
+        <v>510.4873776895454</v>
       </c>
       <c r="AC5" t="n">
-        <v>417.3657989779633</v>
+        <v>461.7671788363888</v>
       </c>
       <c r="AD5" t="n">
-        <v>337221.4686506944</v>
+        <v>373096.7094170472</v>
       </c>
       <c r="AE5" t="n">
-        <v>461401.2905691005</v>
+        <v>510487.3776895454</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.459873754713834e-06</v>
+        <v>4.615687998267009e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.279296875</v>
       </c>
       <c r="AH5" t="n">
-        <v>417365.7989779633</v>
+        <v>461767.1788363889</v>
       </c>
     </row>
   </sheetData>
@@ -14664,28 +14664,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>338.9420382125406</v>
+        <v>393.8178551373692</v>
       </c>
       <c r="AB2" t="n">
-        <v>463.7554497497904</v>
+        <v>538.8389634165217</v>
       </c>
       <c r="AC2" t="n">
-        <v>419.4952805105314</v>
+        <v>487.412929013283</v>
       </c>
       <c r="AD2" t="n">
-        <v>338942.0382125406</v>
+        <v>393817.8551373692</v>
       </c>
       <c r="AE2" t="n">
-        <v>463755.4497497904</v>
+        <v>538838.9634165217</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.879015140541469e-06</v>
+        <v>4.699274268915207e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.5615234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>419495.2805105313</v>
+        <v>487412.929013283</v>
       </c>
     </row>
   </sheetData>
@@ -14961,28 +14961,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>347.995189277022</v>
+        <v>391.0803849738015</v>
       </c>
       <c r="AB2" t="n">
-        <v>476.1423704330509</v>
+        <v>535.0934359700681</v>
       </c>
       <c r="AC2" t="n">
-        <v>430.7000108689338</v>
+        <v>484.0248694494382</v>
       </c>
       <c r="AD2" t="n">
-        <v>347995.189277022</v>
+        <v>391080.3849738015</v>
       </c>
       <c r="AE2" t="n">
-        <v>476142.3704330509</v>
+        <v>535093.4359700681</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.317968023571746e-06</v>
+        <v>4.773353207390474e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.3388671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>430700.0108689338</v>
+        <v>484024.8694494382</v>
       </c>
     </row>
     <row r="3">
@@ -15067,28 +15067,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>289.5412932997187</v>
+        <v>332.7117403425189</v>
       </c>
       <c r="AB3" t="n">
-        <v>396.1631711530169</v>
+        <v>455.2308813426833</v>
       </c>
       <c r="AC3" t="n">
-        <v>358.3539141166751</v>
+        <v>411.7842849478917</v>
       </c>
       <c r="AD3" t="n">
-        <v>289541.2932997188</v>
+        <v>332711.7403425189</v>
       </c>
       <c r="AE3" t="n">
-        <v>396163.171153017</v>
+        <v>455230.8813426833</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.526678161227762e-06</v>
+        <v>5.203146541407282e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.731770833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>358353.9141166751</v>
+        <v>411784.2849478917</v>
       </c>
     </row>
   </sheetData>
@@ -15364,28 +15364,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>493.4381012474149</v>
+        <v>538.3980792164886</v>
       </c>
       <c r="AB2" t="n">
-        <v>675.1437790793656</v>
+        <v>736.6600044308918</v>
       </c>
       <c r="AC2" t="n">
-        <v>610.7090043742752</v>
+        <v>666.3542075168167</v>
       </c>
       <c r="AD2" t="n">
-        <v>493438.1012474149</v>
+        <v>538398.0792164885</v>
       </c>
       <c r="AE2" t="n">
-        <v>675143.7790793655</v>
+        <v>736660.0044308918</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.957711303678434e-06</v>
+        <v>3.878586530305359e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.365885416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>610709.0043742752</v>
+        <v>666354.2075168167</v>
       </c>
     </row>
     <row r="3">
@@ -15470,28 +15470,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>303.9682961429152</v>
+        <v>337.8375589838075</v>
       </c>
       <c r="AB3" t="n">
-        <v>415.9028329175237</v>
+        <v>462.2442525428532</v>
       </c>
       <c r="AC3" t="n">
-        <v>376.2096502671665</v>
+        <v>418.1283098440455</v>
       </c>
       <c r="AD3" t="n">
-        <v>303968.2961429151</v>
+        <v>337837.5589838075</v>
       </c>
       <c r="AE3" t="n">
-        <v>415902.8329175237</v>
+        <v>462244.2525428532</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.519486705016668e-06</v>
+        <v>4.991567029827091e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.500651041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>376209.6502671666</v>
+        <v>418128.3098440456</v>
       </c>
     </row>
     <row r="4">
@@ -15576,28 +15576,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>305.5283496186523</v>
+        <v>339.3976124595446</v>
       </c>
       <c r="AB4" t="n">
-        <v>418.0373669077291</v>
+        <v>464.3787865330586</v>
       </c>
       <c r="AC4" t="n">
-        <v>378.1404673291839</v>
+        <v>420.0591269060631</v>
       </c>
       <c r="AD4" t="n">
-        <v>305528.3496186523</v>
+        <v>339397.6124595446</v>
       </c>
       <c r="AE4" t="n">
-        <v>418037.3669077291</v>
+        <v>464378.7865330586</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.518983592531143e-06</v>
+        <v>4.990570271364328e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.502278645833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>378140.4673291839</v>
+        <v>420059.1269060631</v>
       </c>
     </row>
   </sheetData>
